--- a/4_Mixed_Forecasts/1_Tables/Nowcast_Series_full.xlsx
+++ b/4_Mixed_Forecasts/1_Tables/Nowcast_Series_full.xlsx
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1575,1206 +1575,6 @@
         <v>0.03032413636852055</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="2">
-        <v>43830.99999999999</v>
-      </c>
-      <c r="B24">
-        <v>0.02799552071668639</v>
-      </c>
-      <c r="C24">
-        <v>0.08000000000004093</v>
-      </c>
-      <c r="D24">
-        <v>0.024124257856421</v>
-      </c>
-      <c r="E24">
-        <v>0.1814061084957765</v>
-      </c>
-      <c r="F24">
-        <v>0.05206212892823096</v>
-      </c>
-      <c r="G24">
-        <v>0.1307030542479087</v>
-      </c>
-      <c r="H24">
-        <v>0.1027651831760988</v>
-      </c>
-      <c r="I24">
-        <v>0.09138259158806986</v>
-      </c>
-      <c r="J24">
-        <v>-0.05200447928335454</v>
-      </c>
-      <c r="K24">
-        <v>0.00387126286026539</v>
-      </c>
-      <c r="L24">
-        <v>-0.1534105877790901</v>
-      </c>
-      <c r="M24">
-        <v>-0.02406660821154457</v>
-      </c>
-      <c r="N24">
-        <v>-0.1027075335312223</v>
-      </c>
-      <c r="O24">
-        <v>-0.07476966245941237</v>
-      </c>
-      <c r="P24">
-        <v>-0.06338707087138347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="2">
-        <v>43921.99999999999</v>
-      </c>
-      <c r="B25">
-        <v>-2.221807318894706</v>
-      </c>
-      <c r="C25">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="D25">
-        <v>0.7155752359999999</v>
-      </c>
-      <c r="E25">
-        <v>0.1900831754885381</v>
-      </c>
-      <c r="F25">
-        <v>0.4077876179999971</v>
-      </c>
-      <c r="G25">
-        <v>0.1450415877442662</v>
-      </c>
-      <c r="H25">
-        <v>0.452829205744269</v>
-      </c>
-      <c r="I25">
-        <v>0.2764146028721317</v>
-      </c>
-      <c r="J25">
-        <v>-2.3218073188947</v>
-      </c>
-      <c r="K25">
-        <v>-2.937382554894706</v>
-      </c>
-      <c r="L25">
-        <v>-2.411890494383244</v>
-      </c>
-      <c r="M25">
-        <v>-2.629594936894703</v>
-      </c>
-      <c r="N25">
-        <v>-2.366848906638972</v>
-      </c>
-      <c r="O25">
-        <v>-2.674636524638975</v>
-      </c>
-      <c r="P25">
-        <v>-2.498221921766838</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="2">
-        <v>44012.99999999999</v>
-      </c>
-      <c r="B26">
-        <v>-9.690957649751999</v>
-      </c>
-      <c r="C26">
-        <v>-11.9</v>
-      </c>
-      <c r="D26">
-        <v>-7.451780981</v>
-      </c>
-      <c r="E26">
-        <v>-0.6845717329199352</v>
-      </c>
-      <c r="F26">
-        <v>-9.6758904905</v>
-      </c>
-      <c r="G26">
-        <v>-6.292285866459967</v>
-      </c>
-      <c r="H26">
-        <v>-4.068176356959968</v>
-      </c>
-      <c r="I26">
-        <v>-7.984088178479984</v>
-      </c>
-      <c r="J26">
-        <v>2.209042350248001</v>
-      </c>
-      <c r="K26">
-        <v>-2.239176668751999</v>
-      </c>
-      <c r="L26">
-        <v>-9.006385916832064</v>
-      </c>
-      <c r="M26">
-        <v>-0.01506715925199842</v>
-      </c>
-      <c r="N26">
-        <v>-3.398671783292031</v>
-      </c>
-      <c r="O26">
-        <v>-5.622781292792031</v>
-      </c>
-      <c r="P26">
-        <v>-1.706869471272015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="2">
-        <v>44104.99999999999</v>
-      </c>
-      <c r="B27">
-        <v>8.48030415038547</v>
-      </c>
-      <c r="C27">
-        <v>6.640000000000001</v>
-      </c>
-      <c r="D27">
-        <v>6.405694238</v>
-      </c>
-      <c r="E27">
-        <v>-7.463655357282573</v>
-      </c>
-      <c r="F27">
-        <v>6.522847119</v>
-      </c>
-      <c r="G27">
-        <v>-0.411827678641286</v>
-      </c>
-      <c r="H27">
-        <v>-0.5289805596412864</v>
-      </c>
-      <c r="I27">
-        <v>3.055509720179357</v>
-      </c>
-      <c r="J27">
-        <v>1.840304150385469</v>
-      </c>
-      <c r="K27">
-        <v>2.07460991238547</v>
-      </c>
-      <c r="L27">
-        <v>15.94395950766804</v>
-      </c>
-      <c r="M27">
-        <v>1.95745703138547</v>
-      </c>
-      <c r="N27">
-        <v>8.892131829026756</v>
-      </c>
-      <c r="O27">
-        <v>9.009284710026757</v>
-      </c>
-      <c r="P27">
-        <v>5.424794430206113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="2">
-        <v>44196.99999999999</v>
-      </c>
-      <c r="B28">
-        <v>0.3406326034063205</v>
-      </c>
-      <c r="C28">
-        <v>-0.4000000000000057</v>
-      </c>
-      <c r="D28">
-        <v>-1.14456628109437</v>
-      </c>
-      <c r="E28">
-        <v>-4.144592182330832</v>
-      </c>
-      <c r="F28">
-        <v>-0.7722831405471878</v>
-      </c>
-      <c r="G28">
-        <v>-2.272296091165419</v>
-      </c>
-      <c r="H28">
-        <v>-2.644579231712601</v>
-      </c>
-      <c r="I28">
-        <v>-1.522289615856303</v>
-      </c>
-      <c r="J28">
-        <v>0.7406326034063262</v>
-      </c>
-      <c r="K28">
-        <v>1.48519888450069</v>
-      </c>
-      <c r="L28">
-        <v>4.485224785737152</v>
-      </c>
-      <c r="M28">
-        <v>1.112915743953508</v>
-      </c>
-      <c r="N28">
-        <v>2.612928694571739</v>
-      </c>
-      <c r="O28">
-        <v>2.985211835118921</v>
-      </c>
-      <c r="P28">
-        <v>1.862922219262624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="2">
-        <v>44286.99999999999</v>
-      </c>
-      <c r="B29">
-        <v>-1.806937868393072</v>
-      </c>
-      <c r="C29">
-        <v>-0.7094799999999992</v>
-      </c>
-      <c r="D29">
-        <v>1.297172517</v>
-      </c>
-      <c r="E29">
-        <v>-0.8877061776737167</v>
-      </c>
-      <c r="F29">
-        <v>0.2938462585000003</v>
-      </c>
-      <c r="G29">
-        <v>-0.798593088836858</v>
-      </c>
-      <c r="H29">
-        <v>0.2047331696631416</v>
-      </c>
-      <c r="I29">
-        <v>-0.2523734151684288</v>
-      </c>
-      <c r="J29">
-        <v>-1.097457868393073</v>
-      </c>
-      <c r="K29">
-        <v>-3.104110385393072</v>
-      </c>
-      <c r="L29">
-        <v>-0.9192316907193552</v>
-      </c>
-      <c r="M29">
-        <v>-2.100784126893072</v>
-      </c>
-      <c r="N29">
-        <v>-1.008344779556214</v>
-      </c>
-      <c r="O29">
-        <v>-2.011671038056214</v>
-      </c>
-      <c r="P29">
-        <v>-1.554564453224643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="2">
-        <v>44377.99999999999</v>
-      </c>
-      <c r="B30">
-        <v>1.633092118130258</v>
-      </c>
-      <c r="C30">
-        <v>1.310000000000016</v>
-      </c>
-      <c r="D30">
-        <v>0.673905569079516</v>
-      </c>
-      <c r="E30">
-        <v>0.892999978012982</v>
-      </c>
-      <c r="F30">
-        <v>0.991952784539766</v>
-      </c>
-      <c r="G30">
-        <v>1.101499989006499</v>
-      </c>
-      <c r="H30">
-        <v>0.7834527735462491</v>
-      </c>
-      <c r="I30">
-        <v>1.046726386773133</v>
-      </c>
-      <c r="J30">
-        <v>0.323092118130242</v>
-      </c>
-      <c r="K30">
-        <v>0.959186549050742</v>
-      </c>
-      <c r="L30">
-        <v>0.740092140117276</v>
-      </c>
-      <c r="M30">
-        <v>0.641139333590492</v>
-      </c>
-      <c r="N30">
-        <v>0.5315921291237591</v>
-      </c>
-      <c r="O30">
-        <v>0.8496393445840089</v>
-      </c>
-      <c r="P30">
-        <v>0.5863657313571253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="2">
-        <v>44469.99999999999</v>
-      </c>
-      <c r="B31">
-        <v>1.694266296544459</v>
-      </c>
-      <c r="C31">
-        <v>1.52000000000001</v>
-      </c>
-      <c r="D31">
-        <v>0.347602564</v>
-      </c>
-      <c r="E31">
-        <v>0.464029186385135</v>
-      </c>
-      <c r="F31">
-        <v>0.933801282000005</v>
-      </c>
-      <c r="G31">
-        <v>0.9920145931925726</v>
-      </c>
-      <c r="H31">
-        <v>0.4058158751925675</v>
-      </c>
-      <c r="I31">
-        <v>0.9629079375962888</v>
-      </c>
-      <c r="J31">
-        <v>0.174266296544449</v>
-      </c>
-      <c r="K31">
-        <v>1.346663732544459</v>
-      </c>
-      <c r="L31">
-        <v>1.230237110159324</v>
-      </c>
-      <c r="M31">
-        <v>0.760465014544454</v>
-      </c>
-      <c r="N31">
-        <v>0.7022517033518865</v>
-      </c>
-      <c r="O31">
-        <v>1.288450421351891</v>
-      </c>
-      <c r="P31">
-        <v>0.7313583589481703</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="2">
-        <v>44561.99999999999</v>
-      </c>
-      <c r="B32">
-        <v>-0.3471896406117954</v>
-      </c>
-      <c r="C32">
-        <v>-0.539999999999992</v>
-      </c>
-      <c r="D32">
-        <v>-0.24627924</v>
-      </c>
-      <c r="E32">
-        <v>-0.6356350162097709</v>
-      </c>
-      <c r="F32">
-        <v>-0.393139619999996</v>
-      </c>
-      <c r="G32">
-        <v>-0.5878175081048815</v>
-      </c>
-      <c r="H32">
-        <v>-0.4409571281048855</v>
-      </c>
-      <c r="I32">
-        <v>-0.4904785640524388</v>
-      </c>
-      <c r="J32">
-        <v>0.1928103593881966</v>
-      </c>
-      <c r="K32">
-        <v>-0.1009104006117954</v>
-      </c>
-      <c r="L32">
-        <v>0.2884453755979755</v>
-      </c>
-      <c r="M32">
-        <v>0.04594997938820061</v>
-      </c>
-      <c r="N32">
-        <v>0.2406278674930861</v>
-      </c>
-      <c r="O32">
-        <v>0.09376748749309005</v>
-      </c>
-      <c r="P32">
-        <v>0.1432889234406434</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2">
-        <v>44651.99999999999</v>
-      </c>
-      <c r="B33">
-        <v>0.2354048964218456</v>
-      </c>
-      <c r="C33">
-        <v>0.4652855479103435</v>
-      </c>
-      <c r="D33">
-        <v>2.276288116</v>
-      </c>
-      <c r="E33">
-        <v>0.3241408423207837</v>
-      </c>
-      <c r="F33">
-        <v>1.370786831955172</v>
-      </c>
-      <c r="G33">
-        <v>0.3947131951155636</v>
-      </c>
-      <c r="H33">
-        <v>1.300214479160392</v>
-      </c>
-      <c r="I33">
-        <v>0.8827500135353676</v>
-      </c>
-      <c r="J33">
-        <v>-0.2298806514884979</v>
-      </c>
-      <c r="K33">
-        <v>-2.040883219578154</v>
-      </c>
-      <c r="L33">
-        <v>-0.08873594589893813</v>
-      </c>
-      <c r="M33">
-        <v>-1.135381935533326</v>
-      </c>
-      <c r="N33">
-        <v>-0.159308298693718</v>
-      </c>
-      <c r="O33">
-        <v>-1.064809582738546</v>
-      </c>
-      <c r="P33">
-        <v>-0.6473451171135221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2">
-        <v>44742.99999999999</v>
-      </c>
-      <c r="B34">
-        <v>0.1397298556124878</v>
-      </c>
-      <c r="C34">
-        <v>0.38</v>
-      </c>
-      <c r="D34">
-        <v>0.92820296</v>
-      </c>
-      <c r="E34">
-        <v>0.6660072552246967</v>
-      </c>
-      <c r="F34">
-        <v>0.65410148</v>
-      </c>
-      <c r="G34">
-        <v>0.5230036276123484</v>
-      </c>
-      <c r="H34">
-        <v>0.7971051076123483</v>
-      </c>
-      <c r="I34">
-        <v>0.5885525538061742</v>
-      </c>
-      <c r="J34">
-        <v>-0.2402701443875122</v>
-      </c>
-      <c r="K34">
-        <v>-0.7884731043875122</v>
-      </c>
-      <c r="L34">
-        <v>-0.526277399612209</v>
-      </c>
-      <c r="M34">
-        <v>-0.5143716243875123</v>
-      </c>
-      <c r="N34">
-        <v>-0.3832737719998606</v>
-      </c>
-      <c r="O34">
-        <v>-0.6573752519998606</v>
-      </c>
-      <c r="P34">
-        <v>-0.4488226981936864</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="2">
-        <v>44834.99999999999</v>
-      </c>
-      <c r="B35">
-        <v>0.4001488926112106</v>
-      </c>
-      <c r="C35">
-        <v>0.04</v>
-      </c>
-      <c r="D35">
-        <v>-0.277926312</v>
-      </c>
-      <c r="E35">
-        <v>0.3437767272872988</v>
-      </c>
-      <c r="F35">
-        <v>-0.118963156</v>
-      </c>
-      <c r="G35">
-        <v>0.1918883636436494</v>
-      </c>
-      <c r="H35">
-        <v>0.0329252076436494</v>
-      </c>
-      <c r="I35">
-        <v>0.0364626038218247</v>
-      </c>
-      <c r="J35">
-        <v>0.3601488926112106</v>
-      </c>
-      <c r="K35">
-        <v>0.6780752046112106</v>
-      </c>
-      <c r="L35">
-        <v>0.05637216532391182</v>
-      </c>
-      <c r="M35">
-        <v>0.5191120486112106</v>
-      </c>
-      <c r="N35">
-        <v>0.2082605289675612</v>
-      </c>
-      <c r="O35">
-        <v>0.3672236849675612</v>
-      </c>
-      <c r="P35">
-        <v>0.3636862887893859</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="2">
-        <v>44926.99999999999</v>
-      </c>
-      <c r="B36">
-        <v>-0.4353061035472806</v>
-      </c>
-      <c r="C36">
-        <v>-0.29</v>
-      </c>
-      <c r="D36">
-        <v>0.251316528</v>
-      </c>
-      <c r="E36">
-        <v>0.4120709423816584</v>
-      </c>
-      <c r="F36">
-        <v>-0.019341736</v>
-      </c>
-      <c r="G36">
-        <v>0.06103547119082922</v>
-      </c>
-      <c r="H36">
-        <v>0.3316937351908292</v>
-      </c>
-      <c r="I36">
-        <v>0.02084686759541461</v>
-      </c>
-      <c r="J36">
-        <v>-0.1453061035472806</v>
-      </c>
-      <c r="K36">
-        <v>-0.6866226315472805</v>
-      </c>
-      <c r="L36">
-        <v>-0.847377045928939</v>
-      </c>
-      <c r="M36">
-        <v>-0.4159643675472806</v>
-      </c>
-      <c r="N36">
-        <v>-0.4963415747381098</v>
-      </c>
-      <c r="O36">
-        <v>-0.7669998387381098</v>
-      </c>
-      <c r="P36">
-        <v>-0.4561529711426952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="2">
-        <v>45016.99999999999</v>
-      </c>
-      <c r="B37">
-        <v>-0.3352267436446591</v>
-      </c>
-      <c r="C37">
-        <v>-0.2078779574152918</v>
-      </c>
-      <c r="D37">
-        <v>0.538736913</v>
-      </c>
-      <c r="E37">
-        <v>0.6519408127754134</v>
-      </c>
-      <c r="F37">
-        <v>0.1654294777923541</v>
-      </c>
-      <c r="G37">
-        <v>0.2220314276800608</v>
-      </c>
-      <c r="H37">
-        <v>0.5953388628877068</v>
-      </c>
-      <c r="I37">
-        <v>0.1937304527362075</v>
-      </c>
-      <c r="J37">
-        <v>-0.1273487862293673</v>
-      </c>
-      <c r="K37">
-        <v>-0.8739636566446591</v>
-      </c>
-      <c r="L37">
-        <v>-0.9871675564200725</v>
-      </c>
-      <c r="M37">
-        <v>-0.5006562214370132</v>
-      </c>
-      <c r="N37">
-        <v>-0.5572581713247199</v>
-      </c>
-      <c r="O37">
-        <v>-0.9305656065323659</v>
-      </c>
-      <c r="P37">
-        <v>-0.5289571963808666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="2">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B38">
-        <v>0.01855976243503714</v>
-      </c>
-      <c r="C38">
-        <v>0.1206478331785803</v>
-      </c>
-      <c r="D38">
-        <v>-0.318864405</v>
-      </c>
-      <c r="E38">
-        <v>0.8814549586592991</v>
-      </c>
-      <c r="F38">
-        <v>-0.09910828591070986</v>
-      </c>
-      <c r="G38">
-        <v>0.5010513959189398</v>
-      </c>
-      <c r="H38">
-        <v>0.2812952768296496</v>
-      </c>
-      <c r="I38">
-        <v>0.200971555004115</v>
-      </c>
-      <c r="J38">
-        <v>-0.1020880707435432</v>
-      </c>
-      <c r="K38">
-        <v>0.3374241674350372</v>
-      </c>
-      <c r="L38">
-        <v>-0.862895196224262</v>
-      </c>
-      <c r="M38">
-        <v>0.117668048345747</v>
-      </c>
-      <c r="N38">
-        <v>-0.4824916334839026</v>
-      </c>
-      <c r="O38">
-        <v>-0.2627355143946124</v>
-      </c>
-      <c r="P38">
-        <v>-0.1824117925690778</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="2">
-        <v>45199.99999999999</v>
-      </c>
-      <c r="B39">
-        <v>-0.1296176279974082</v>
-      </c>
-      <c r="C39">
-        <v>-0.18</v>
-      </c>
-      <c r="D39">
-        <v>-0.474503149</v>
-      </c>
-      <c r="E39">
-        <v>0.5350086232236873</v>
-      </c>
-      <c r="F39">
-        <v>-0.3272515745</v>
-      </c>
-      <c r="G39">
-        <v>0.1775043116118436</v>
-      </c>
-      <c r="H39">
-        <v>0.03025273711184362</v>
-      </c>
-      <c r="I39">
-        <v>-0.07487363144407819</v>
-      </c>
-      <c r="J39">
-        <v>0.0503823720025918</v>
-      </c>
-      <c r="K39">
-        <v>0.3448855210025918</v>
-      </c>
-      <c r="L39">
-        <v>-0.6646262512210954</v>
-      </c>
-      <c r="M39">
-        <v>0.1976339465025918</v>
-      </c>
-      <c r="N39">
-        <v>-0.3071219396092518</v>
-      </c>
-      <c r="O39">
-        <v>-0.1598703651092518</v>
-      </c>
-      <c r="P39">
-        <v>-0.05474399655333001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="2">
-        <v>45291.99999999999</v>
-      </c>
-      <c r="B40">
-        <v>-0.2870636170015632</v>
-      </c>
-      <c r="C40">
-        <v>0.044</v>
-      </c>
-      <c r="D40">
-        <v>-0.290614742754258</v>
-      </c>
-      <c r="E40">
-        <v>0.5007400141027678</v>
-      </c>
-      <c r="F40">
-        <v>-0.123307371377129</v>
-      </c>
-      <c r="G40">
-        <v>0.2723700070513839</v>
-      </c>
-      <c r="H40">
-        <v>0.1050626356742549</v>
-      </c>
-      <c r="I40">
-        <v>0.07453131783712744</v>
-      </c>
-      <c r="J40">
-        <v>-0.3310636170015632</v>
-      </c>
-      <c r="K40">
-        <v>0.003551125752694839</v>
-      </c>
-      <c r="L40">
-        <v>-0.787803631104331</v>
-      </c>
-      <c r="M40">
-        <v>-0.1637562456244342</v>
-      </c>
-      <c r="N40">
-        <v>-0.5594336240529472</v>
-      </c>
-      <c r="O40">
-        <v>-0.3921262526758181</v>
-      </c>
-      <c r="P40">
-        <v>-0.3615949348386907</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="2">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B41">
-        <v>0.2135958395245076</v>
-      </c>
-      <c r="C41">
-        <v>-0.08251004046350374</v>
-      </c>
-      <c r="D41">
-        <v>-0.236658442</v>
-      </c>
-      <c r="E41">
-        <v>0.6148977852456914</v>
-      </c>
-      <c r="F41">
-        <v>-0.1595842412317519</v>
-      </c>
-      <c r="G41">
-        <v>0.2661938723910938</v>
-      </c>
-      <c r="H41">
-        <v>0.1891196716228457</v>
-      </c>
-      <c r="I41">
-        <v>0.05330481557967098</v>
-      </c>
-      <c r="J41">
-        <v>0.2961058799880114</v>
-      </c>
-      <c r="K41">
-        <v>0.4502542815245076</v>
-      </c>
-      <c r="L41">
-        <v>-0.4013019457211838</v>
-      </c>
-      <c r="M41">
-        <v>0.3731800807562595</v>
-      </c>
-      <c r="N41">
-        <v>-0.05259803286658621</v>
-      </c>
-      <c r="O41">
-        <v>0.0244761679016619</v>
-      </c>
-      <c r="P41">
-        <v>0.1602910239448366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="2">
-        <v>45473.99999999999</v>
-      </c>
-      <c r="B42">
-        <v>-0.06676204101096155</v>
-      </c>
-      <c r="C42">
-        <v>0.2582525219575302</v>
-      </c>
-      <c r="D42">
-        <v>0.374912587</v>
-      </c>
-      <c r="E42">
-        <v>0.5461074682008229</v>
-      </c>
-      <c r="F42">
-        <v>0.3165825544787651</v>
-      </c>
-      <c r="G42">
-        <v>0.4021799950791766</v>
-      </c>
-      <c r="H42">
-        <v>0.4605100276004115</v>
-      </c>
-      <c r="I42">
-        <v>0.3593812747789708</v>
-      </c>
-      <c r="J42">
-        <v>-0.3250145629684917</v>
-      </c>
-      <c r="K42">
-        <v>-0.4416746280109616</v>
-      </c>
-      <c r="L42">
-        <v>-0.6128695092117844</v>
-      </c>
-      <c r="M42">
-        <v>-0.3833445954897267</v>
-      </c>
-      <c r="N42">
-        <v>-0.4689420360901381</v>
-      </c>
-      <c r="O42">
-        <v>-0.527272068611373</v>
-      </c>
-      <c r="P42">
-        <v>-0.4261433157899324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="2">
-        <v>45565.99999999999</v>
-      </c>
-      <c r="B43">
-        <v>0.1052128168340501</v>
-      </c>
-      <c r="C43">
-        <v>-0.04717552522494373</v>
-      </c>
-      <c r="D43">
-        <v>-0.559269386</v>
-      </c>
-      <c r="E43">
-        <v>0.3984361203848173</v>
-      </c>
-      <c r="F43">
-        <v>-0.3032224556124719</v>
-      </c>
-      <c r="G43">
-        <v>0.1756302975799368</v>
-      </c>
-      <c r="H43">
-        <v>-0.08041663280759134</v>
-      </c>
-      <c r="I43">
-        <v>-0.06379607901626753</v>
-      </c>
-      <c r="J43">
-        <v>0.1523883420589938</v>
-      </c>
-      <c r="K43">
-        <v>0.66448220283405</v>
-      </c>
-      <c r="L43">
-        <v>-0.2932233035507672</v>
-      </c>
-      <c r="M43">
-        <v>0.4084352724465219</v>
-      </c>
-      <c r="N43">
-        <v>-0.07041748074588669</v>
-      </c>
-      <c r="O43">
-        <v>0.1856294496416414</v>
-      </c>
-      <c r="P43">
-        <v>0.1690088958503176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="2">
-        <v>45657.99999999999</v>
-      </c>
-      <c r="B44">
-        <v>-0.2006497229122814</v>
-      </c>
-      <c r="C44">
-        <v>0.2142297805489477</v>
-      </c>
-      <c r="D44">
-        <v>0.135411462</v>
-      </c>
-      <c r="E44">
-        <v>0.4733275747052469</v>
-      </c>
-      <c r="F44">
-        <v>0.1748206212744738</v>
-      </c>
-      <c r="G44">
-        <v>0.3437786776270973</v>
-      </c>
-      <c r="H44">
-        <v>0.3043695183526234</v>
-      </c>
-      <c r="I44">
-        <v>0.2592996494507856</v>
-      </c>
-      <c r="J44">
-        <v>-0.4148795034612291</v>
-      </c>
-      <c r="K44">
-        <v>-0.3360611849122814</v>
-      </c>
-      <c r="L44">
-        <v>-0.6739772976175282</v>
-      </c>
-      <c r="M44">
-        <v>-0.3754703441867552</v>
-      </c>
-      <c r="N44">
-        <v>-0.5444284005393787</v>
-      </c>
-      <c r="O44">
-        <v>-0.5050192412649048</v>
-      </c>
-      <c r="P44">
-        <v>-0.459949372363067</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="2">
-        <v>45747.99999999999</v>
-      </c>
-      <c r="B45">
-        <v>0.4116802297750048</v>
-      </c>
-      <c r="C45">
-        <v>0.2394371574146135</v>
-      </c>
-      <c r="D45">
-        <v>0.332099825</v>
-      </c>
-      <c r="E45">
-        <v>0.4738675049177161</v>
-      </c>
-      <c r="F45">
-        <v>0.2857684912073067</v>
-      </c>
-      <c r="G45">
-        <v>0.3566523311661648</v>
-      </c>
-      <c r="H45">
-        <v>0.4029836649588581</v>
-      </c>
-      <c r="I45">
-        <v>0.3212104111867358</v>
-      </c>
-      <c r="J45">
-        <v>0.1722430723603913</v>
-      </c>
-      <c r="K45">
-        <v>0.07958040477500478</v>
-      </c>
-      <c r="L45">
-        <v>-0.06218727514271133</v>
-      </c>
-      <c r="M45">
-        <v>0.1259117385676981</v>
-      </c>
-      <c r="N45">
-        <v>0.05502789860884</v>
-      </c>
-      <c r="O45">
-        <v>0.008696564816146723</v>
-      </c>
-      <c r="P45">
-        <v>0.09046981858826902</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="2">
-        <v>45838.99999999999</v>
-      </c>
-      <c r="B46">
-        <v>-0.2766911554241067</v>
-      </c>
-      <c r="C46">
-        <v>0.04717883418304325</v>
-      </c>
-      <c r="D46">
-        <v>0.028721274</v>
-      </c>
-      <c r="E46">
-        <v>0.3519456421565676</v>
-      </c>
-      <c r="F46">
-        <v>0.03795005409152163</v>
-      </c>
-      <c r="G46">
-        <v>0.1995622381698054</v>
-      </c>
-      <c r="H46">
-        <v>0.1903334580782838</v>
-      </c>
-      <c r="I46">
-        <v>0.1187561461306635</v>
-      </c>
-      <c r="J46">
-        <v>-0.32386998960715</v>
-      </c>
-      <c r="K46">
-        <v>-0.3054124294241067</v>
-      </c>
-      <c r="L46">
-        <v>-0.6286367975806744</v>
-      </c>
-      <c r="M46">
-        <v>-0.3146412095156284</v>
-      </c>
-      <c r="N46">
-        <v>-0.4762533935939122</v>
-      </c>
-      <c r="O46">
-        <v>-0.4670246135023906</v>
-      </c>
-      <c r="P46">
-        <v>-0.3954473015547703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="2">
-        <v>45930.99999999999</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0.0959495356205764</v>
-      </c>
-      <c r="D47">
-        <v>0.042359665</v>
-      </c>
-      <c r="E47">
-        <v>0.4328090033804217</v>
-      </c>
-      <c r="F47">
-        <v>0.06915460031028819</v>
-      </c>
-      <c r="G47">
-        <v>0.2643792695004991</v>
-      </c>
-      <c r="H47">
-        <v>0.2375843341902109</v>
-      </c>
-      <c r="I47">
-        <v>0.1667669349053936</v>
-      </c>
-      <c r="J47">
-        <v>-0.0959495356205764</v>
-      </c>
-      <c r="K47">
-        <v>-0.042359665</v>
-      </c>
-      <c r="L47">
-        <v>-0.4328090033804217</v>
-      </c>
-      <c r="M47">
-        <v>-0.06915460031028819</v>
-      </c>
-      <c r="N47">
-        <v>-0.2643792695004991</v>
-      </c>
-      <c r="O47">
-        <v>-0.2375843341902109</v>
-      </c>
-      <c r="P47">
-        <v>-0.1667669349053936</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
